--- a/Akan/Ananse0/AkanEnglishAligned.xlsx
+++ b/Akan/Ananse0/AkanEnglishAligned.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Truth in Translation\Akan\Ananse0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E792B7A3-4B7C-4C35-B249-D65AA219CDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{842461F8-B7FF-4561-ADAB-FCC038B027E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Metadata" sheetId="2" r:id="rId1"/>
-    <sheet name="Reference" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>Te' nse se, 'nse se o</t>
   </si>
@@ -532,58 +531,7 @@
     <t>HOW IT GAME ABOUT THAT THE SKY-GOD'S STORIES CAME TO BE KNOWN AS SPIDER-STORIES "</t>
   </si>
   <si>
-    <t>HOW IT CAME ABOUT THAT THE SKY-GOD'S STORIES CAME TO BE KNOWN AS SPIDER-STORIES "</t>
-  </si>
-  <si>
-    <t>StoryName</t>
-  </si>
-  <si>
-    <t>Raffety</t>
-  </si>
-  <si>
-    <t>TranslaterID</t>
-  </si>
-  <si>
-    <t>Human</t>
-  </si>
-  <si>
-    <t>TranslaterType</t>
-  </si>
-  <si>
-    <t>TargetLanguage</t>
-  </si>
-  <si>
-    <t>Anansi0</t>
-  </si>
-  <si>
-    <t>StoryID</t>
-  </si>
-  <si>
     <t>Akan</t>
-  </si>
-  <si>
-    <t>SourceLanguage</t>
-  </si>
-  <si>
-    <t>ReportLanguage</t>
-  </si>
-  <si>
-    <t>Anansi0.xlsx</t>
-  </si>
-  <si>
-    <t>Filename</t>
-  </si>
-  <si>
-    <t>/content/drive/My Drive/Akan/Ananse0</t>
-  </si>
-  <si>
-    <t>Filepath</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -642,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -650,7 +598,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -957,111 +904,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59BC389-2540-4BAD-ADD2-A4B3D5E9AAE8}">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="27.1796875" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1071,10 +918,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1"/>

--- a/Akan/Ananse0/AkanEnglishAligned.xlsx
+++ b/Akan/Ananse0/AkanEnglishAligned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Truth in Translation\Akan\Ananse0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{842461F8-B7FF-4561-ADAB-FCC038B027E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A07158E6-9C57-4F57-8D54-CCF59DD867C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36525" yWindow="6345" windowWidth="13950" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Onini see, "Fra bra, be susu me."</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>We do not really mean, we do not really mean, (that what we are going to say is true)</t>
   </si>
   <si>
@@ -531,7 +528,10 @@
     <t>HOW IT GAME ABOUT THAT THE SKY-GOD'S STORIES CAME TO BE KNOWN AS SPIDER-STORIES "</t>
   </si>
   <si>
-    <t>Akan</t>
+    <t>AKAN</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
   </si>
 </sst>
 </file>
@@ -590,16 +590,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -905,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -917,165 +914,164 @@
     <col min="2" max="2" width="107.36328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -1083,503 +1079,503 @@
         <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Akan/Ananse0/AkanEnglishAligned.xlsx
+++ b/Akan/Ananse0/AkanEnglishAligned.xlsx
@@ -8,530 +8,517 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Truth in Translation\Akan\Ananse0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A07158E6-9C57-4F57-8D54-CCF59DD867C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A9684F-81F5-4978-A436-E4EF4D6A6AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36525" yWindow="6345" windowWidth="13950" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30150" yWindow="2670" windowWidth="11850" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
+    <t>AKAN</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+  </si>
+  <si>
     <t>Te' nse se, 'nse se o</t>
   </si>
   <si>
+    <t>We do not really mean, we do not really mean, (that what we are going to say is true)</t>
+  </si>
+  <si>
     <t>SE 'YOYE A ANYANKONSEM YE BE FRENO ANANSESEM</t>
   </si>
   <si>
+    <t>HOW IT GAME ABOUT THAT THE SKY-GOD'S STORIES CAME TO BE KNOWN AS SPIDER-STORIES "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KWAKU ANANSE na okoo Nyankonpon hose omfa 'Nyankonsem mma no nto. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KWAKU ANANSE, the Spider, once went to Nyankonpon, the Sky-god, in order to buy the Sky-god's stories. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyame see, "Wo betimi ato?" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Sky-god said, "Will you be able to buy them? " </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse see, "Ei ! metimi." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spider said, " Rather, I shall be able." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyame see, "Akuro akantinka be ye se Kokofu, Bekwai, Asumengya aha, ye'antimi anto, na wo Kwafwiaban na wo betimi?" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Sky-god said, " Great and powerful towns like Kokofu, Bekwai, Asumengya have come, but they were unable to purchase them, and you who are but a mere masterless man, (you say) you will be able? " </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse see, " Edieben na ye to ma? " </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spider said, "What is the price of (the stories) ? " </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyame see, " Ye nto mma fwe gye se, Aboa Onini, Osebo, Mmoatia, Mmoboro." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Sky-god said, "They cannot be bought for anything except the Onini creature the Python; Osebo, the Leopard; Mmoatia, the Fairy; (and) Mmoboro, the Hornets." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse see, " Me de nnooma nnyina bi meba, me de m'aberewa, Nsia, meka ho." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spider said, " I will bring some of all these things, and (what is more), I'll add my old woman, Nsia (The Sixth child), to the lot." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyame see, "Ko fa brae." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Sky-god said, " Go and bring them then." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse baye, na oboo oni amanie se, "Nyankonsem me pe se me to, na Nyame se me mfa Onini, Osebo, Mmoatia, Mmoboro mmera, na me see, me de wo be ka ho ma ko ma Nyankonpon." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spider came, and told his mother all about it, saying, " I wish to buy the stories of the Sky-god, and the Sky-god says I must bring Onini, the Python; Osebo, the Leopard; Mmoatia, a Fairy; and Mmoboro, Hornets; and I said I would add you to the lot and go and give the Sky-god." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Ananse bisaa ne ye' Aso se, "Ebeye den na ye'anya Onini?" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now the Spider consulted his wife Aso, saying, " What is to be done that we may get Onini, the Python? " </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Aso ka kyeree no se, "Worlie ko twa tonton na twa demere ka ho, na fa bra." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And Aso said to him, "You go off and cut a branch of a palm-tree, and cut some string creeper as well, and bring them." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Ananse de baye. </t>
+  </si>
+  <si>
     <t>And the Spider came back with them.</t>
   </si>
   <si>
+    <t xml:space="preserve">Na Aso see, "Fa ko asuom'." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And Aso said, "Take them to the stream." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Ananse de ekoro no, osee, "Esene no, ensene no; woboa, esene no." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And Ananse took them; as he was going along he said, " It's longer than he is, it's not so long as he; you lie, it's longer than he." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse see, "Ono na oda doo no." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spider said, "There he is, lying yonder." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onini see, "Aden? " </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Python (who had overheard this imaginary conversation) said, "What's it all about?" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse see, " Nye Aso na ogye me akyinnyie, se ton­ ton yi kyen wo tenten, name se oboa." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spider said," Is it not (my wife) Aso, who is arguing with me that this palm­ branch is longer than you, and I say she is a liar." </t>
+  </si>
+  <si>
     <t>Onini see, "Fra bra, be susu me."</t>
   </si>
   <si>
-    <t>We do not really mean, we do not really mean, (that what we are going to say is true)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KWAKU ANANSE, the Spider, once went to Nyankonpon, the Sky-god, in order to buy the Sky-god's stories. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Sky-god said, "Will you be able to buy them? " </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Spider said, " Rather, I shall be able." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Sky-god said, " Great and powerful towns like Kokofu, Bekwai, Asumengya have come, but they were unable to purchase them, and you who are but a mere masterless man, (you say) you will be able? " </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Spider said, "What is the price of (the stories) ? " </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Sky-god said, "They cannot be bought for anything except the Onini creature the Python; Osebo, the Leopard; Mmoatia, the Fairy; (and) Mmoboro, the Hornets." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Spider said, " I will bring some of all these things, and (what is more), I'll add my old woman, Nsia (The Sixth child), to the lot." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Sky-god said, " Go and bring them then." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Spider came, and told his mother all about it, saying, " I wish to buy the stories of the Sky-god, and the Sky-god says I must bring Onini, the Python; Osebo, the Leopard; Mmoatia, a Fairy; and Mmoboro, Hornets; and I said I would add you to the lot and go and give the Sky-god." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now the Spider consulted his wife Aso, saying, " What is to be done that we may get Onini, the Python? " </t>
-  </si>
-  <si>
-    <t xml:space="preserve">And Aso said to him, "You go off and cut a branch of a palm-tree, and cut some string creeper as well, and bring them." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">And Aso said, "Take them to the stream." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">And Ananse took them; as he was going along he said, " It's longer than he is, it's not so long as he; you lie, it's longer than he." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Spider said, "There he is, lying yonder." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Python (who had overheard this imaginary conversation) said, "What's it all about?" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Spider said," Is it not (my wife) Aso, who is arguing with me that this palm­ branch is longer than you, and I say she is a liar." </t>
-  </si>
-  <si>
     <t xml:space="preserve">And Onini, the Python, said, "Bring it, and come and measure me." </t>
   </si>
   <si>
+    <t xml:space="preserve">Ode tonton no too Onini ho. </t>
+  </si>
+  <si>
     <t xml:space="preserve">He took the palm-branch and laid it along the Python's body. </t>
   </si>
   <si>
+    <t xml:space="preserve">Osee, "Twe wo mu." </t>
+  </si>
+  <si>
     <t xml:space="preserve">He said, "Stretch yourself out." </t>
   </si>
   <si>
+    <t xml:space="preserve">Na Onini twe no mu, na Ananse de demere no too no so, nwenene ! nwenene ! nwenene ! na esii tire. </t>
+  </si>
+  <si>
     <t xml:space="preserve">And the Python stretched himself out, and Ananse took the rope-creeper and wound it (and the sound of the tying was nwenene ! nwenene ! nwenene ! until he came to the head. </t>
   </si>
   <si>
+    <t xml:space="preserve">Ananse see, "Kwasea, me de wo ko gye Anyankonsem." </t>
+  </si>
+  <si>
     <t xml:space="preserve">Ananse, the Spider, said, " Fool, I shall take you to the Sky-god and receive the Sky-god's tales (in exchange)." </t>
   </si>
   <si>
+    <t xml:space="preserve">Ananse de no ko maa Nyame. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Ananse took him off to Nyame (the Sky-god). </t>
   </si>
   <si>
+    <t xml:space="preserve">Nyame see, " Me nsa aka, aka dee aka." </t>
+  </si>
+  <si>
     <t xml:space="preserve">The Sky-god said," My hand has touched (i.e. I have received it), there remains what still remains." </t>
   </si>
   <si>
+    <t xml:space="preserve">Ananse san baye be boo ne ye' amanie se, "Aka Mmoboro." </t>
+  </si>
+  <si>
     <t xml:space="preserve">The Spider returned, and came and told his wife what had happened, saying, "There remain the Hornets." </t>
   </si>
   <si>
+    <t xml:space="preserve">Ne yere see, "Pe towa, fa nsuo gum', na fa ko." </t>
+  </si>
+  <si>
     <t xml:space="preserve">His wife said, "Look for a gourd, and fill it with water, and go off with it." </t>
   </si>
   <si>
+    <t xml:space="preserve">Ananse koo wuram' obefwe se Mmoboro sen ho, na ofwiee nsuo no bi na opete guu Mmoboro no so. Ananse fwiee dee aka guu ono ara so na otwaa brodee-ahan de kataa no ti. </t>
+  </si>
+  <si>
     <t xml:space="preserve">The Spider went along through the bush, when he saw (a swarm of) Hornets hanging there, and he poured out some of the water and sprinkled it on the Hornets. </t>
   </si>
   <si>
+    <t xml:space="preserve">Efei na oka kyeree Mmoboro no se, " Osuo eba yi, ankra mo ha na mo be hyee me toa yim'a s'ankra osuo yi emmo mo, mo nfwe se me de brodee ahahan akata me soo? " </t>
+  </si>
+  <si>
     <t xml:space="preserve">The Spider then poured the remainder upon himself, and cut a leaf of the plantain and covered his head with it. </t>
   </si>
   <si>
+    <t xml:space="preserve">Ena Mmoboro no see, "Ye'da w'ase Aku, ye'da w'ase Aku." </t>
+  </si>
+  <si>
     <t xml:space="preserve">And now he addressed the Hornets, saying, "As the rain has come, had you not better come and enter this, my  gourd, so that the rain will not beat you; don't you see that I have taken a plantain leaf to cover myself? " </t>
   </si>
   <si>
+    <t xml:space="preserve">Mmoboro no nnyina tuo toa nom', fom ! </t>
+  </si>
+  <si>
     <t xml:space="preserve">Then the Hornets said, "We thank you Aku, we thank you Aku." </t>
   </si>
   <si>
+    <t xml:space="preserve">Agya Ananse tuaa ano. </t>
+  </si>
+  <si>
     <t xml:space="preserve">All the Hornets flew, disappearing into the gourd, fom ! </t>
   </si>
   <si>
+    <t xml:space="preserve">Osee, " Nkwaseafuo m'anya mo, me de mo ko gye Anyankonsem." </t>
+  </si>
+  <si>
     <t xml:space="preserve">Father Spider covered the mouth, and he said, " Fools, I have  got you, and I am taking you to receive the tales of the Sky-god (in exchange)." </t>
   </si>
   <si>
+    <t xml:space="preserve">Ode Mmoboro ko maa Nyame. </t>
+  </si>
+  <si>
     <t xml:space="preserve">And he took the Hornets to the Sky-god. </t>
   </si>
   <si>
+    <t xml:space="preserve">Nyame see, "Mensa aka, aka dee aka." </t>
+  </si>
+  <si>
     <t xml:space="preserve">The Sky-god said, "My hand has touched, what remains (still) remains." </t>
   </si>
   <si>
+    <t xml:space="preserve">Ananse baa bio, be ka kyeree ne yere see, "Aka Osebo." </t>
+  </si>
+  <si>
     <t xml:space="preserve">The Spider came back once more, and told his wife, and said, "There remains Osebo, the Leopard." </t>
   </si>
   <si>
+    <t xml:space="preserve">Aso see, "Ko tu amana." </t>
+  </si>
+  <si>
     <t xml:space="preserve">Aso said, "Go and dig a hole." </t>
   </si>
   <si>
+    <t xml:space="preserve">Ananse see, "Gyae na mahu." </t>
+  </si>
+  <si>
     <t xml:space="preserve">Ananse said, "That's enough, I understand." </t>
   </si>
   <si>
+    <t>Enie Ananse ko pee Osebo kyeneno na otu amana ten­ tenten, na okataa so, na obaa 'fie.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Then the Spider went off to look for the Leopard's tracks, and (having found them) he dug a very deep pit, and covered it over, and came back home. </t>
   </si>
   <si>
+    <t xml:space="preserve">Adeekyeye anopa, Ananse se oko, obekoro, Osebo na oda amanam'. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Very early next day, when objects began to be visible, the Spider said he would go off, and when he went, (lo) a Leopard is lying in the pit. </t>
   </si>
   <si>
+    <t xml:space="preserve">Ananse see, "Agyawa 'ba! Enawa 'ba! se maka akyere wo se nnom nsa, sese wo nokwa wako nom abo, nti na w'abe to amanam' ; se me kaase me beyi wo a, addekye wo ko hu me a, se nso me 'ha biara a, na wo ko kye no." </t>
+  </si>
+  <si>
     <t xml:space="preserve">Ananse said: "Little father's child, little mother's child, I have told you not to get drunk, and now, just as one would expect of you, you have become intoxicated, and that's why you have fallen into the pit; if l were to say I would get you out, next day, if you saw me, or likewise any of my children, you would go and catch them." </t>
   </si>
   <si>
+    <t xml:space="preserve">Osebo se, "0 ! me ntimi." </t>
+  </si>
+  <si>
     <t xml:space="preserve">The Leopard said, "0 ! I could not do such a thing." </t>
   </si>
   <si>
+    <t xml:space="preserve">Ananse ko twaa nnua mmienu, de bako too ha, de bako too ha. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Ananse went and cut two sticks, put one here, and one there. </t>
   </si>
   <si>
+    <t xml:space="preserve">Osee, " Fa wo nsa bako to ha, na fa wo nsa bako soso to ha." </t>
+  </si>
+  <si>
     <t xml:space="preserve">He said, " Put one of your paws here, and one also of your paws here." </t>
   </si>
   <si>
+    <t xml:space="preserve">Na Osebo de totoye. </t>
+  </si>
+  <si>
     <t xml:space="preserve">And the Leopard placed them (where he was told). </t>
   </si>
   <si>
+    <t xml:space="preserve">Ose ofo' na Ananse ama sekan so, na wa ma n'anyam, ne tirim' gao! </t>
+  </si>
+  <si>
     <t xml:space="preserve">As he was about to climb up, Ananse lifted up his knife, and in a flash it descended on his head, gao! (was the sound it made). </t>
   </si>
   <si>
+    <t xml:space="preserve">Osebo gyee ama­ nam' fom ! </t>
+  </si>
+  <si>
     <t xml:space="preserve">The pit received the Leopard (and) fom ! (was the sound of his falling). </t>
   </si>
   <si>
+    <t xml:space="preserve">Ananse faa atwedee de sii amanam' ko yii Osebo. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Ananse got a ladder to descend into the pit to go and get the Leopard out. </t>
   </si>
   <si>
+    <t>Oko yii Osebo de no baye, osee, "Kwasea me de wo ko gye Anyankonsem.</t>
+  </si>
+  <si>
     <t xml:space="preserve">He got the Leopard out and came with it; he said, "Fool, I am taking you to exchange for the stories of the Sky-god." </t>
   </si>
   <si>
+    <t xml:space="preserve">Omaa Osebo so, ko maa Nyame. </t>
+  </si>
+  <si>
     <t xml:space="preserve">He lifted up the Leopard to go and give to Nyame, the Sky-god. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Sky-god said, " My hands have touched, what remains still remains." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Spider came, and he carved an Akua's child (a black fiat-faced wooden doll), and he tapped some sticky latex (from a tree) and plastered the doll's body with it; and he pounded eto (mashed yams), and put some in the doll's hand, and he pounded some more and placed it in a brass basin; he tied string round the doll's waist, and went with it and placed it at the foot of an odum-tree, the place where the Fairies come to play. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">And a Fairy came along.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">She said, "Alma, may I eat a little of this mash?" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananse tugged at the string, and the doll nodded her head. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Fairy told one of her sisters, saying, " She says I may eat some." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">She said, " Eat some, then." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">And she finished eating, and thanked her (the doll). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">But when she thanked her, she did not answer.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">And the Fairy said to her sister, " When I thank her, she does not reply." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sister of the (first) Fairy said," Slap her crying-place." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">And she slapped it, pa ! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">And her hand stuck there. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">She said to her sister, " My hand has stuck there." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">She said, " Take the one that remains and slap her crying-place again." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">And she took it and slapped her, pa! and this one, too, stuck fast. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">And the Fairy told her sister, saying, "My two hands have stuck fast."  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">She said, "Push it with your stomach." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">She pushed it, and her stomach stuck to it.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">And Ananse came and tied her up, and he said, " Fool, I have got you, I shall take you to the Sky-god (in exchange) for his stories." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">And he went off home with her. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">And Ananse told his mother, Ya Nsia (the sixth child), saying, "Rise up, let us go, for I am taking you along with the Fairy to go and give the Sky-god (in exchange) for his stories." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">He lifted them up, and went off there to where the Sky-god was.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">He said, " Sky-god, here is a Fairy, and my old woman whom I spoke about, here she is, too." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Now the Sky-god called (his elders), the Kontire and Akwam chiefs, the Adonten (leader of the main body of the army), the Gyase (major-domo); the Oyoko, Ankobea, and Kyidom (leader of the rear-guard). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">And he put the matter before them, saying, "Very great kings have come, and were not able to buy the Sky-god's stories, but Kwaku Ananse, the Spider, has been able to pay the price; I have received from him Mmoboro, the Hornets; I have received from him Mmoatia, the Fairy; I have received from him Osebo, the Leopard; I have received from him Onini, the Python; and of his own accord, Ananse has added his mother to the lot; all these things lie here." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">He said," Sing his praise." </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Eee!  (they shouted). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Sky-god said, " Kwaku Ananse, from today and going on for ever, I take my Sky-god's stories and I present them to you, kose! kose! kose! my blessing, blessing, blessing. </t>
-  </si>
-  <si>
-    <t>No more we shall call them the stories of the Sky-god, but we shall call them Spider-stories."</t>
-  </si>
-  <si>
-    <t>This, my story, which I have related, if it be sweet, (or) if it be not sweet, takesome elsewhere, and let some come back to me.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KWAKU ANANSE na okoo Nyankonpon hose omfa 'Nyankonsem mma no nto. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyame see, "Wo betimi ato?" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananse see, "Ei ! metimi." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyame see, "Akuro akantinka be ye se Kokofu, Bekwai, Asumengya aha, ye'antimi anto, na wo Kwafwiaban na wo betimi?" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananse see, " Edieben na ye to ma? " </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyame see, " Ye nto mma fwe gye se, Aboa Onini, Osebo, Mmoatia, Mmoboro." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananse see, " Me de nnooma nnyina bi meba, me de m'aberewa, Nsia, meka ho." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyame see, "Ko fa brae." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananse baye, na oboo oni amanie se, "Nyankonsem me pe se me to, na Nyame se me mfa Onini, Osebo, Mmoatia, Mmoboro mmera, na me see, me de wo be ka ho ma ko ma Nyankonpon." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na Ananse bisaa ne ye' Aso se, "Ebeye den na ye'anya Onini?" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na Aso ka kyeree no se, "Worlie ko twa tonton na twa demere ka ho, na fa bra." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na Ananse de baye. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na Aso see, "Fa ko asuom'." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na Ananse de ekoro no, osee, "Esene no, ensene no; woboa, esene no." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananse see, "Ono na oda doo no." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onini see, "Aden? " </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananse see, " Nye Aso na ogye me akyinnyie, se ton­ ton yi kyen wo tenten, name se oboa." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ode tonton no too Onini ho. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osee, "Twe wo mu." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na Onini twe no mu, na Ananse de demere no too no so, nwenene ! nwenene ! nwenene ! na esii tire. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananse see, "Kwasea, me de wo ko gye Anyankonsem." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananse de no ko maa Nyame. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyame see, " Me nsa aka, aka dee aka." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananse san baye be boo ne ye' amanie se, "Aka Mmoboro." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ne yere see, "Pe towa, fa nsuo gum', na fa ko." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananse koo wuram' obefwe se Mmoboro sen ho, na ofwiee nsuo no bi na opete guu Mmoboro no so. Ananse fwiee dee aka guu ono ara so na otwaa brodee-ahan de kataa no ti. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efei na oka kyeree Mmoboro no se, " Osuo eba yi, ankra mo ha na mo be hyee me toa yim'a s'ankra osuo yi emmo mo, mo nfwe se me de brodee ahahan akata me soo? " </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ena Mmoboro no see, "Ye'da w'ase Aku, ye'da w'ase Aku." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mmoboro no nnyina tuo toa nom', fom ! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agya Ananse tuaa ano. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osee, " Nkwaseafuo m'anya mo, me de mo ko gye Anyankonsem." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ode Mmoboro ko maa Nyame. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyame see, "Mensa aka, aka dee aka." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananse baa bio, be ka kyeree ne yere see, "Aka Osebo." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aso see, "Ko tu amana." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananse see, "Gyae na mahu." </t>
-  </si>
-  <si>
-    <t>Enie Ananse ko pee Osebo kyeneno na otu amana ten­ tenten, na okataa so, na obaa 'fie.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adeekyeye anopa, Ananse se oko, obekoro, Osebo na oda amanam'. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananse see, "Agyawa 'ba! Enawa 'ba! se maka akyere wo se nnom nsa, sese wo nokwa wako nom abo, nti na w'abe to amanam' ; se me kaase me beyi wo a, addekye wo ko hu me a, se nso me 'ha biara a, na wo ko kye no." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osebo se, "0 ! me ntimi." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananse ko twaa nnua mmienu, de bako too ha, de bako too ha. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osee, " Fa wo nsa bako to ha, na fa wo nsa bako soso to ha." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na Osebo de totoye. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ose ofo' na Ananse ama sekan so, na wa ma n'anyam, ne tirim' gao! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osebo gyee ama­ nam' fom ! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananse faa atwedee de sii amanam' ko yii Osebo. </t>
-  </si>
-  <si>
-    <t>Oko yii Osebo de no baye, osee, "Kwasea me de wo ko gye Anyankonsem.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ananse baye na osenee Akua Ba, na oboo amane de tetaree Akua Ba no ho; na ofufuu to, na ode bi hyee Akua Ba no nsam', na ofufuu bi de guu ayowam'; ode homa soo Akua Ba asen, na ode no kosii odum ase babi a mmoatia bedi agoro. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na mmoatia bako baye. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osee, "Akua; me nni eto yi bi?" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na Ananse atwe homa no, na Akua Ba no abo ne tiri nko. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mmoatia ka kyeree onua balm se, "Ose me nni bi."  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osee, "Di  bi e."  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na odii aduane no wieye, na odaa n'ase. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oda n'ase ommua. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na Mmoatia no ka kyeree onua se, "Meda n'ase a, ommua."  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mmoatia no nua ka kyeree nose, "Bo no sum."  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na wabo, pa!  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na ne nsa aka ho. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oka kyeree onua se, "Me nsa aka ho." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osee, " Fa bako a aka, bo no sum bio." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na ode boo no pa! na 'yi no so aka ho. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na Mmoatia ka kyeree onua se," Me nsa mmienu aka ho." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osee, " Fa w'afu sum no." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ode sum no, na n'afu aka ho. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na Ananse baye na obe kyekyeree no; osee, " Kwasea m'anya wo, me de wo ko gye Anyankonsem."  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na ode koo 'fie.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na Ananse ka kyeree oni, Ya Nsia se, " Sore, ma yen ko, me mfa wo nka Mmoatia yi ho nko gye Anyankonsem." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omaa yen so, koo Nyame ho. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osee, "Nyame, Mmoatia ni, m'aberewa a me kaye no, nso ni." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyame so free Ko'ntire ne Akwam', ne Adonten, ne Gyase, ne Oyoko, ne Ankobea, ne Kyidom. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Na ode too ye'anim se, "Ahene akesie akesie aha, ye'antimi anto Anyankonsem, Kwaku Ananse dee watimi ato; m'agye no Mmoboro; m'agye no Mmoatia; m'agye no Osebo; m'agye no Onini; ono ara Ananse de oni ato so; nnooma no nnyina na egu ho yi." </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osee, " Mo mpene no."  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ye see, " Eee ! "  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyankonpon see, " Kwaku Ananse, efiri nne ekoro yi, me de Anyankonsem me kye wo, kose ! kose ! kose! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yammered no Anyankonsem bio, na ye'mfre no Anansesem." </t>
-  </si>
-  <si>
-    <t>M'anansesem a metooye yi, se eye de o, se ennye de o, momfa bi nko, nazzzmomfa bi mmera.</t>
   </si>
   <si>
     <t xml:space="preserve">
 Nyame see, Mensa aka, aka dee aka." </t>
   </si>
   <si>
-    <t xml:space="preserve">Omaa Osebo so, ko maa Nyame. </t>
-  </si>
-  <si>
-    <t>HOW IT GAME ABOUT THAT THE SKY-GOD'S STORIES CAME TO BE KNOWN AS SPIDER-STORIES "</t>
-  </si>
-  <si>
-    <t>AKAN</t>
-  </si>
-  <si>
-    <t>ENGLISH</t>
+    <t xml:space="preserve">The Sky-god said, " My hands have touched, what remains still remains." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse baye na osenee Akua Ba, na oboo amane de tetaree Akua Ba no ho; na ofufuu to, na ode bi hyee Akua Ba no nsam', na ofufuu bi de guu ayowam'; ode homa soo Akua Ba asen, na ode no kosii odum ase babi a mmoatia bedi agoro. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Spider came, and he carved an Akua's child (a black fiat-faced wooden doll), and he tapped some sticky latex (from a tree) and plastered the doll's body with it; and he pounded eto (mashed yams), and put some in the doll's hand, and he pounded some more and placed it in a brass basin; he tied string round the doll's waist, and went with it and placed it at the foot of an odum-tree, the place where the Fairies come to play. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na mmoatia bako baye. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And a Fairy came along.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osee, "Akua; me nni eto yi bi?" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She said, "Alma, may I eat a little of this mash?" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Ananse atwe homa no, na Akua Ba no abo ne tiri nko. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse tugged at the string, and the doll nodded her head. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mmoatia ka kyeree onua balm se, "Ose me nni bi."  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Fairy told one of her sisters, saying, " She says I may eat some." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osee, "Di  bi e."  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She said, " Eat some, then." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na odii aduane no wieye, na odaa n'ase. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And she finished eating, and thanked her (the doll). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oda n'ase ommua. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">But when she thanked her, she did not answer.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Mmoatia no ka kyeree onua se, "Meda n'ase a, ommua."  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And the Fairy said to her sister, " When I thank her, she does not reply." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mmoatia no nua ka kyeree nose, "Bo no sum."  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sister of the (first) Fairy said," Slap her crying-place." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na wabo, pa!  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And she slapped it, pa ! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na ne nsa aka ho. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And her hand stuck there. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oka kyeree onua se, "Me nsa aka ho." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She said to her sister, " My hand has stuck there." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osee, " Fa bako a aka, bo no sum bio." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She said, " Take the one that remains and slap her crying-place again." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na ode boo no pa! na 'yi no so aka ho. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And she took it and slapped her, pa! and this one, too, stuck fast. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Mmoatia ka kyeree onua se," Me nsa mmienu aka ho." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And the Fairy told her sister, saying, "My two hands have stuck fast."  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osee, " Fa w'afu sum no." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She said, "Push it with your stomach." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ode sum no, na n'afu aka ho. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">She pushed it, and her stomach stuck to it.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Ananse baye na obe kyekyeree no; osee, " Kwasea m'anya wo, me de wo ko gye Anyankonsem."  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And Ananse came and tied her up, and he said, " Fool, I have got you, I shall take you to the Sky-god (in exchange) for his stories." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na ode koo 'fie.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And he went off home with her. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Ananse ka kyeree oni, Ya Nsia se, " Sore, ma yen ko, me mfa wo nka Mmoatia yi ho nko gye Anyankonsem." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And Ananse told his mother, Ya Nsia (the sixth child), saying, "Rise up, let us go, for I am taking you along with the Fairy to go and give the Sky-god (in exchange) for his stories." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omaa yen so, koo Nyame ho. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He lifted them up, and went off there to where the Sky-god was.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osee, "Nyame, Mmoatia ni, m'aberewa a me kaye no, nso ni." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He said, " Sky-god, here is a Fairy, and my old woman whom I spoke about, here she is, too." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyame so free Ko'ntire ne Akwam', ne Adonten, ne Gyase, ne Oyoko, ne Ankobea, ne Kyidom. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Now the Sky-god called (his elders), the Kontire and Akwam chiefs, the Adonten (leader of the main body of the army), the Gyase (major-domo); the Oyoko, Ankobea, and Kyidom (leader of the rear-guard). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na ode too ye'anim se, "Ahene akesie akesie aha, ye'antimi anto Anyankonsem, Kwaku Ananse dee watimi ato; m'agye no Mmoboro; m'agye no Mmoatia; m'agye no Osebo; m'agye no Onini; ono ara Ananse de oni ato so; nnooma no nnyina na egu ho yi." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">And he put the matter before them, saying, "Very great kings have come, and were not able to buy the Sky-god's stories, but Kwaku Ananse, the Spider, has been able to pay the price; I have received from him Mmoboro, the Hornets; I have received from him Mmoatia, the Fairy; I have received from him Osebo, the Leopard; I have received from him Onini, the Python; and of his own accord, Ananse has added his mother to the lot; all these things lie here." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osee, " Mo mpene no."  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He said," Sing his praise." </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ye see, " Eee ! "  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eee!  (they shouted). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyankonpon see, " Kwaku Ananse, efiri nne ekoro yi, me de Anyankonsem me kye wo, kose ! kose ! kose! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Sky-god said, " Kwaku Ananse, from today and going on for ever, I take my Sky-god's stories and I present them to you, kose! kose! kose! my blessing, blessing, blessing. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yammered no Anyankonsem bio, na ye'mfre no Anansesem." </t>
+  </si>
+  <si>
+    <t>No more we shall call them the stories of the Sky-god, but we shall call them Spider-stories."</t>
+  </si>
+  <si>
+    <t>M'anansesem a metooye yi, se eye de o, se ennye de o, momfa bi nko, nazzzmomfa bi mmera.</t>
+  </si>
+  <si>
+    <t>This, my story, which I have related, if it be sweet, (or) if it be not sweet, takesome elsewhere, and let some come back to me.</t>
   </si>
 </sst>
 </file>
@@ -904,638 +891,638 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="88.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="107.36328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="64.36328125" customWidth="1"/>
+    <col min="2" max="2" width="93.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>97</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>121</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>75</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -1543,39 +1530,39 @@
         <v>156</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>79</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Akan/Ananse0/AkanEnglishAligned.xlsx
+++ b/Akan/Ananse0/AkanEnglishAligned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Truth in Translation\Akan\Ananse0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A9684F-81F5-4978-A436-E4EF4D6A6AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636B8669-116F-42D4-B5C6-56A9AFA571DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30150" yWindow="2670" windowWidth="11850" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>ENGLISH</t>
   </si>
   <si>
-    <t>Te' nse se, 'nse se o</t>
-  </si>
-  <si>
     <t>We do not really mean, we do not really mean, (that what we are going to say is true)</t>
   </si>
   <si>
@@ -519,6 +516,9 @@
   </si>
   <si>
     <t>This, my story, which I have related, if it be sweet, (or) if it be not sweet, takesome elsewhere, and let some come back to me.</t>
+  </si>
+  <si>
+    <t>Ye' nse se, 'nse se o</t>
   </si>
 </sst>
 </file>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD83"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -911,658 +911,658 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Akan/Ananse0/AkanEnglishAligned.xlsx
+++ b/Akan/Ananse0/AkanEnglishAligned.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Truth in Translation\Akan\Ananse0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636B8669-116F-42D4-B5C6-56A9AFA571DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535F6E9E-FA18-42EB-95DA-9D8C6E1C64DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -193,9 +193,6 @@
     <t xml:space="preserve">His wife said, "Look for a gourd, and fill it with water, and go off with it." </t>
   </si>
   <si>
-    <t xml:space="preserve">Ananse koo wuram' obefwe se Mmoboro sen ho, na ofwiee nsuo no bi na opete guu Mmoboro no so. Ananse fwiee dee aka guu ono ara so na otwaa brodee-ahan de kataa no ti. </t>
-  </si>
-  <si>
     <t xml:space="preserve">The Spider went along through the bush, when he saw (a swarm of) Hornets hanging there, and he poured out some of the water and sprinkled it on the Hornets. </t>
   </si>
   <si>
@@ -217,13 +214,7 @@
     <t xml:space="preserve">Then the Hornets said, "We thank you Aku, we thank you Aku." </t>
   </si>
   <si>
-    <t xml:space="preserve">Agya Ananse tuaa ano. </t>
-  </si>
-  <si>
     <t xml:space="preserve">All the Hornets flew, disappearing into the gourd, fom ! </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osee, " Nkwaseafuo m'anya mo, me de mo ko gye Anyankonsem." </t>
   </si>
   <si>
     <t xml:space="preserve">Father Spider covered the mouth, and he said, " Fools, I have  got you, and I am taking you to receive the tales of the Sky-god (in exchange)." </t>
@@ -519,6 +510,15 @@
   </si>
   <si>
     <t>Ye' nse se, 'nse se o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse koo wuram' obefwe se Mmoboro sen ho, na ofwiee nsuo no bi na opete guu Mmoboro no so. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ananse fwiee dee aka guu ono ara so na otwaa brodee-ahan de kataa no ti. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agya Ananse tuaa ano; Osee, " Nkwaseafuo m'anya mo, me de mo ko gye Anyankonsem." </t>
   </si>
 </sst>
 </file>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -911,7 +911,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1133,436 +1133,436 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
